--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tnfsf14-Tnfrsf14.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tnfsf14-Tnfrsf14.xlsx
@@ -537,22 +537,22 @@
         <v>25</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.786831</v>
+        <v>5.57196</v>
       </c>
       <c r="H2">
-        <v>8.360493</v>
+        <v>16.71588</v>
       </c>
       <c r="I2">
-        <v>0.1227769702371957</v>
+        <v>0.2041274261050298</v>
       </c>
       <c r="J2">
-        <v>0.1227769702371957</v>
+        <v>0.2041274261050299</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.853017333333334</v>
+        <v>2.862697666666667</v>
       </c>
       <c r="N2">
-        <v>11.559052</v>
+        <v>8.588093000000001</v>
       </c>
       <c r="O2">
-        <v>0.06452481780012838</v>
+        <v>0.06997451156315468</v>
       </c>
       <c r="P2">
-        <v>0.06452481780012839</v>
+        <v>0.06997451156315466</v>
       </c>
       <c r="Q2">
-        <v>10.73770814807067</v>
+        <v>15.95083689076</v>
       </c>
       <c r="R2">
-        <v>96.63937333263601</v>
+        <v>143.55753201684</v>
       </c>
       <c r="S2">
-        <v>0.007922161634606836</v>
+        <v>0.01428371693834341</v>
       </c>
       <c r="T2">
-        <v>0.007922161634606838</v>
+        <v>0.01428371693834341</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.786831</v>
+        <v>5.57196</v>
       </c>
       <c r="H3">
-        <v>8.360493</v>
+        <v>16.71588</v>
       </c>
       <c r="I3">
-        <v>0.1227769702371957</v>
+        <v>0.2041274261050298</v>
       </c>
       <c r="J3">
-        <v>0.1227769702371957</v>
+        <v>0.2041274261050299</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>7.565863999999999</v>
       </c>
       <c r="O3">
-        <v>0.04223408598737599</v>
+        <v>0.06164554086142937</v>
       </c>
       <c r="P3">
-        <v>0.042234085987376</v>
+        <v>0.06164554086142937</v>
       </c>
       <c r="Q3">
-        <v>7.028261445661332</v>
+        <v>14.05223052448</v>
       </c>
       <c r="R3">
-        <v>63.25435301095199</v>
+        <v>126.47007472032</v>
       </c>
       <c r="S3">
-        <v>0.005185373118267225</v>
+        <v>0.01258354558689602</v>
       </c>
       <c r="T3">
-        <v>0.005185373118267226</v>
+        <v>0.01258354558689602</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.786831</v>
+        <v>5.57196</v>
       </c>
       <c r="H4">
-        <v>8.360493</v>
+        <v>16.71588</v>
       </c>
       <c r="I4">
-        <v>0.1227769702371957</v>
+        <v>0.2041274261050298</v>
       </c>
       <c r="J4">
-        <v>0.1227769702371957</v>
+        <v>0.2041274261050299</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.84381733333333</v>
+        <v>17.93719066666667</v>
       </c>
       <c r="N4">
-        <v>53.53145199999999</v>
+        <v>53.811572</v>
       </c>
       <c r="O4">
-        <v>0.2988227050865692</v>
+        <v>0.4384487297873381</v>
       </c>
       <c r="P4">
-        <v>0.2988227050865692</v>
+        <v>0.4384487297873381</v>
       </c>
       <c r="Q4">
-        <v>49.72770330287066</v>
+        <v>99.94530890703999</v>
       </c>
       <c r="R4">
-        <v>447.5493297258359</v>
+        <v>899.5077801633599</v>
       </c>
       <c r="S4">
-        <v>0.036688546368612</v>
+        <v>0.08949941069050905</v>
       </c>
       <c r="T4">
-        <v>0.036688546368612</v>
+        <v>0.08949941069050907</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>27</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>2.786831</v>
+        <v>5.57196</v>
       </c>
       <c r="H5">
-        <v>8.360493</v>
+        <v>16.71588</v>
       </c>
       <c r="I5">
-        <v>0.1227769702371957</v>
+        <v>0.2041274261050298</v>
       </c>
       <c r="J5">
-        <v>0.1227769702371957</v>
+        <v>0.2041274261050299</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.149381666666667</v>
+        <v>0.5052413333333333</v>
       </c>
       <c r="N5">
-        <v>3.448145</v>
+        <v>1.515724</v>
       </c>
       <c r="O5">
-        <v>0.01924819854374075</v>
+        <v>0.01234989497255689</v>
       </c>
       <c r="P5">
-        <v>0.01924819854374075</v>
+        <v>0.01234989497255689</v>
       </c>
       <c r="Q5">
-        <v>3.203132459498333</v>
+        <v>2.81518449968</v>
       </c>
       <c r="R5">
-        <v>28.828192135485</v>
+        <v>25.33666049712</v>
       </c>
       <c r="S5">
-        <v>0.002363235499724491</v>
+        <v>0.002520952273415487</v>
       </c>
       <c r="T5">
-        <v>0.002363235499724492</v>
+        <v>0.002520952273415487</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>2.786831</v>
+        <v>5.57196</v>
       </c>
       <c r="H6">
-        <v>8.360493</v>
+        <v>16.71588</v>
       </c>
       <c r="I6">
-        <v>0.1227769702371957</v>
+        <v>0.2041274261050298</v>
       </c>
       <c r="J6">
-        <v>0.1227769702371957</v>
+        <v>0.2041274261050299</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.697805</v>
+        <v>11.46238066666667</v>
       </c>
       <c r="N6">
-        <v>32.09341499999999</v>
+        <v>34.387142</v>
       </c>
       <c r="O6">
-        <v>0.1791515217215829</v>
+        <v>0.280181347070047</v>
       </c>
       <c r="P6">
-        <v>0.1791515217215829</v>
+        <v>0.280181347070047</v>
       </c>
       <c r="Q6">
-        <v>29.81297460595499</v>
+        <v>63.86792657944</v>
       </c>
       <c r="R6">
-        <v>268.3167714535949</v>
+        <v>574.81133921496</v>
       </c>
       <c r="S6">
-        <v>0.0219956810503591</v>
+        <v>0.05719269722004875</v>
       </c>
       <c r="T6">
-        <v>0.02199568105035911</v>
+        <v>0.05719269722004874</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>2.786831</v>
+        <v>5.57196</v>
       </c>
       <c r="H7">
-        <v>8.360493</v>
+        <v>16.71588</v>
       </c>
       <c r="I7">
-        <v>0.1227769702371957</v>
+        <v>0.2041274261050298</v>
       </c>
       <c r="J7">
-        <v>0.1227769702371957</v>
+        <v>0.2041274261050299</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.64775066666667</v>
+        <v>5.621112333333333</v>
       </c>
       <c r="N7">
-        <v>70.943252</v>
+        <v>16.863337</v>
       </c>
       <c r="O7">
-        <v>0.3960186708606028</v>
+        <v>0.1373999757454739</v>
       </c>
       <c r="P7">
-        <v>0.3960186708606029</v>
+        <v>0.1373999757454739</v>
       </c>
       <c r="Q7">
-        <v>65.90228463813733</v>
+        <v>31.32061307684</v>
       </c>
       <c r="R7">
-        <v>593.120561743236</v>
+        <v>281.88551769156</v>
       </c>
       <c r="S7">
-        <v>0.04862197256562602</v>
+        <v>0.02804710339581711</v>
       </c>
       <c r="T7">
-        <v>0.04862197256562603</v>
+        <v>0.02804710339581712</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.35471666666666</v>
+        <v>20.56891366666667</v>
       </c>
       <c r="H8">
-        <v>52.06415</v>
+        <v>61.70674100000001</v>
       </c>
       <c r="I8">
-        <v>0.7645815378321459</v>
+        <v>0.7535372480335895</v>
       </c>
       <c r="J8">
-        <v>0.7645815378321459</v>
+        <v>0.7535372480335896</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.853017333333334</v>
+        <v>2.862697666666667</v>
       </c>
       <c r="N8">
-        <v>11.559052</v>
+        <v>8.588093000000001</v>
       </c>
       <c r="O8">
-        <v>0.06452481780012838</v>
+        <v>0.06997451156315468</v>
       </c>
       <c r="P8">
-        <v>0.06452481780012839</v>
+        <v>0.06997451156315466</v>
       </c>
       <c r="Q8">
-        <v>66.86802413175556</v>
+        <v>58.8825811594348</v>
       </c>
       <c r="R8">
-        <v>601.8122171858</v>
+        <v>529.9432304349131</v>
       </c>
       <c r="S8">
-        <v>0.04933448442196118</v>
+        <v>0.05272840087579416</v>
       </c>
       <c r="T8">
-        <v>0.04933448442196119</v>
+        <v>0.05272840087579416</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.35471666666666</v>
+        <v>20.56891366666667</v>
       </c>
       <c r="H9">
-        <v>52.06415</v>
+        <v>61.70674100000001</v>
       </c>
       <c r="I9">
-        <v>0.7645815378321459</v>
+        <v>0.7535372480335895</v>
       </c>
       <c r="J9">
-        <v>0.7645815378321459</v>
+        <v>0.7535372480335896</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>7.565863999999999</v>
       </c>
       <c r="O9">
-        <v>0.04223408598737599</v>
+        <v>0.06164554086142937</v>
       </c>
       <c r="P9">
-        <v>0.042234085987376</v>
+        <v>0.06164554086142937</v>
       </c>
       <c r="Q9">
-        <v>43.76780868617777</v>
+        <v>51.87386780991378</v>
       </c>
       <c r="R9">
-        <v>393.9102781756</v>
+        <v>466.864810289224</v>
       </c>
       <c r="S9">
-        <v>0.03229140241316302</v>
+        <v>0.04645221121426368</v>
       </c>
       <c r="T9">
-        <v>0.03229140241316302</v>
+        <v>0.04645221121426368</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.35471666666666</v>
+        <v>20.56891366666667</v>
       </c>
       <c r="H10">
-        <v>52.06415</v>
+        <v>61.70674100000001</v>
       </c>
       <c r="I10">
-        <v>0.7645815378321459</v>
+        <v>0.7535372480335895</v>
       </c>
       <c r="J10">
-        <v>0.7645815378321459</v>
+        <v>0.7535372480335896</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.84381733333333</v>
+        <v>17.93719066666667</v>
       </c>
       <c r="N10">
-        <v>53.53145199999999</v>
+        <v>53.811572</v>
       </c>
       <c r="O10">
-        <v>0.2988227050865692</v>
+        <v>0.4384487297873381</v>
       </c>
       <c r="P10">
-        <v>0.2988227050865692</v>
+        <v>0.4384487297873381</v>
       </c>
       <c r="Q10">
-        <v>309.6743940717554</v>
+        <v>368.9485262452058</v>
       </c>
       <c r="R10">
-        <v>2787.0695466458</v>
+        <v>3320.536736206852</v>
       </c>
       <c r="S10">
-        <v>0.2284743233942509</v>
+        <v>0.3303874492477736</v>
       </c>
       <c r="T10">
-        <v>0.2284743233942509</v>
+        <v>0.3303874492477736</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.35471666666666</v>
+        <v>20.56891366666667</v>
       </c>
       <c r="H11">
-        <v>52.06415</v>
+        <v>61.70674100000001</v>
       </c>
       <c r="I11">
-        <v>0.7645815378321459</v>
+        <v>0.7535372480335895</v>
       </c>
       <c r="J11">
-        <v>0.7645815378321459</v>
+        <v>0.7535372480335896</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.149381666666667</v>
+        <v>0.5052413333333333</v>
       </c>
       <c r="N11">
-        <v>3.448145</v>
+        <v>1.515724</v>
       </c>
       <c r="O11">
-        <v>0.01924819854374075</v>
+        <v>0.01234989497255689</v>
       </c>
       <c r="P11">
-        <v>0.01924819854374075</v>
+        <v>0.01234989497255689</v>
       </c>
       <c r="Q11">
-        <v>19.9471931668611</v>
+        <v>10.39226536616489</v>
       </c>
       <c r="R11">
-        <v>179.52473850175</v>
+        <v>93.53038829548402</v>
       </c>
       <c r="S11">
-        <v>0.01471681724307177</v>
+        <v>0.009306105871124383</v>
       </c>
       <c r="T11">
-        <v>0.01471681724307178</v>
+        <v>0.009306105871124385</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>17.35471666666666</v>
+        <v>20.56891366666667</v>
       </c>
       <c r="H12">
-        <v>52.06415</v>
+        <v>61.70674100000001</v>
       </c>
       <c r="I12">
-        <v>0.7645815378321459</v>
+        <v>0.7535372480335895</v>
       </c>
       <c r="J12">
-        <v>0.7645815378321459</v>
+        <v>0.7535372480335896</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.697805</v>
+        <v>11.46238066666667</v>
       </c>
       <c r="N12">
-        <v>32.09341499999999</v>
+        <v>34.387142</v>
       </c>
       <c r="O12">
-        <v>0.1791515217215829</v>
+        <v>0.280181347070047</v>
       </c>
       <c r="P12">
-        <v>0.1791515217215829</v>
+        <v>0.280181347070047</v>
       </c>
       <c r="Q12">
-        <v>185.6573747302499</v>
+        <v>235.7687183471358</v>
       </c>
       <c r="R12">
-        <v>1670.91637257225</v>
+        <v>2121.918465124222</v>
       </c>
       <c r="S12">
-        <v>0.136975945982857</v>
+        <v>0.2111270812215073</v>
       </c>
       <c r="T12">
-        <v>0.136975945982857</v>
+        <v>0.2111270812215073</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>17.35471666666666</v>
+        <v>20.56891366666667</v>
       </c>
       <c r="H13">
-        <v>52.06415</v>
+        <v>61.70674100000001</v>
       </c>
       <c r="I13">
-        <v>0.7645815378321459</v>
+        <v>0.7535372480335895</v>
       </c>
       <c r="J13">
-        <v>0.7645815378321459</v>
+        <v>0.7535372480335896</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>23.64775066666667</v>
+        <v>5.621112333333333</v>
       </c>
       <c r="N13">
-        <v>70.943252</v>
+        <v>16.863337</v>
       </c>
       <c r="O13">
-        <v>0.3960186708606028</v>
+        <v>0.1373999757454739</v>
       </c>
       <c r="P13">
-        <v>0.3960186708606029</v>
+        <v>0.1373999757454739</v>
       </c>
       <c r="Q13">
-        <v>410.4000126239777</v>
+        <v>115.6201742949686</v>
       </c>
       <c r="R13">
-        <v>3693.6001136158</v>
+        <v>1040.581568654717</v>
       </c>
       <c r="S13">
-        <v>0.3027885643768422</v>
+        <v>0.1035359996031263</v>
       </c>
       <c r="T13">
-        <v>0.3027885643768422</v>
+        <v>0.1035359996031263</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.556772666666667</v>
+        <v>1.155605333333333</v>
       </c>
       <c r="H14">
-        <v>7.670318</v>
+        <v>3.466816</v>
       </c>
       <c r="I14">
-        <v>0.1126414919306584</v>
+        <v>0.04233532586138062</v>
       </c>
       <c r="J14">
-        <v>0.1126414919306584</v>
+        <v>0.04233532586138063</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.853017333333334</v>
+        <v>2.862697666666667</v>
       </c>
       <c r="N14">
-        <v>11.559052</v>
+        <v>8.588093000000001</v>
       </c>
       <c r="O14">
-        <v>0.06452481780012838</v>
+        <v>0.06997451156315468</v>
       </c>
       <c r="P14">
-        <v>0.06452481780012839</v>
+        <v>0.06997451156315466</v>
       </c>
       <c r="Q14">
-        <v>9.851289402059557</v>
+        <v>3.308148691320889</v>
       </c>
       <c r="R14">
-        <v>88.661604618536</v>
+        <v>29.773338221888</v>
       </c>
       <c r="S14">
-        <v>0.007268171743560366</v>
+        <v>0.002962393749017099</v>
       </c>
       <c r="T14">
-        <v>0.007268171743560367</v>
+        <v>0.002962393749017099</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.556772666666667</v>
+        <v>1.155605333333333</v>
       </c>
       <c r="H15">
-        <v>7.670318</v>
+        <v>3.466816</v>
       </c>
       <c r="I15">
-        <v>0.1126414919306584</v>
+        <v>0.04233532586138062</v>
       </c>
       <c r="J15">
-        <v>0.1126414919306584</v>
+        <v>0.04233532586138063</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>7.565863999999999</v>
       </c>
       <c r="O15">
-        <v>0.04223408598737599</v>
+        <v>0.06164554086142937</v>
       </c>
       <c r="P15">
-        <v>0.042234085987376</v>
+        <v>0.06164554086142937</v>
       </c>
       <c r="Q15">
-        <v>6.448064758305778</v>
+        <v>2.914384263224888</v>
       </c>
       <c r="R15">
-        <v>58.032582824752</v>
+        <v>26.22945836902399</v>
       </c>
       <c r="S15">
-        <v>0.004757310455945747</v>
+        <v>0.002609784060269666</v>
       </c>
       <c r="T15">
-        <v>0.004757310455945747</v>
+        <v>0.002609784060269667</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.556772666666667</v>
+        <v>1.155605333333333</v>
       </c>
       <c r="H16">
-        <v>7.670318</v>
+        <v>3.466816</v>
       </c>
       <c r="I16">
-        <v>0.1126414919306584</v>
+        <v>0.04233532586138062</v>
       </c>
       <c r="J16">
-        <v>0.1126414919306584</v>
+        <v>0.04233532586138063</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.84381733333333</v>
+        <v>17.93719066666667</v>
       </c>
       <c r="N16">
-        <v>53.53145199999999</v>
+        <v>53.811572</v>
       </c>
       <c r="O16">
-        <v>0.2988227050865692</v>
+        <v>0.4384487297873381</v>
       </c>
       <c r="P16">
-        <v>0.2988227050865692</v>
+        <v>0.4384487297873381</v>
       </c>
       <c r="Q16">
-        <v>45.62258442685955</v>
+        <v>20.72831319941688</v>
       </c>
       <c r="R16">
-        <v>410.603259841736</v>
+        <v>186.554818794752</v>
       </c>
       <c r="S16">
-        <v>0.0336598353237063</v>
+        <v>0.01856186984905538</v>
       </c>
       <c r="T16">
-        <v>0.0336598353237063</v>
+        <v>0.01856186984905538</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.556772666666667</v>
+        <v>1.155605333333333</v>
       </c>
       <c r="H17">
-        <v>7.670318</v>
+        <v>3.466816</v>
       </c>
       <c r="I17">
-        <v>0.1126414919306584</v>
+        <v>0.04233532586138062</v>
       </c>
       <c r="J17">
-        <v>0.1126414919306584</v>
+        <v>0.04233532586138063</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.149381666666667</v>
+        <v>0.5052413333333333</v>
       </c>
       <c r="N17">
-        <v>3.448145</v>
+        <v>1.515724</v>
       </c>
       <c r="O17">
-        <v>0.01924819854374075</v>
+        <v>0.01234989497255689</v>
       </c>
       <c r="P17">
-        <v>0.01924819854374075</v>
+        <v>0.01234989497255689</v>
       </c>
       <c r="Q17">
-        <v>2.938707628901111</v>
+        <v>0.5838595794204443</v>
       </c>
       <c r="R17">
-        <v>26.44836866011</v>
+        <v>5.254736214784</v>
       </c>
       <c r="S17">
-        <v>0.002168145800944485</v>
+        <v>0.0005228368280170223</v>
       </c>
       <c r="T17">
-        <v>0.002168145800944485</v>
+        <v>0.0005228368280170224</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.556772666666667</v>
+        <v>1.155605333333333</v>
       </c>
       <c r="H18">
-        <v>7.670318</v>
+        <v>3.466816</v>
       </c>
       <c r="I18">
-        <v>0.1126414919306584</v>
+        <v>0.04233532586138062</v>
       </c>
       <c r="J18">
-        <v>0.1126414919306584</v>
+        <v>0.04233532586138063</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.697805</v>
+        <v>11.46238066666667</v>
       </c>
       <c r="N18">
-        <v>32.09341499999999</v>
+        <v>34.387142</v>
       </c>
       <c r="O18">
-        <v>0.1791515217215829</v>
+        <v>0.280181347070047</v>
       </c>
       <c r="P18">
-        <v>0.1791515217215829</v>
+        <v>0.280181347070047</v>
       </c>
       <c r="Q18">
-        <v>27.35185541732999</v>
+        <v>13.24598823109689</v>
       </c>
       <c r="R18">
-        <v>246.1666987559699</v>
+        <v>119.213894079872</v>
       </c>
       <c r="S18">
-        <v>0.02017989468836686</v>
+        <v>0.01186156862849102</v>
       </c>
       <c r="T18">
-        <v>0.02017989468836686</v>
+        <v>0.01186156862849102</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.556772666666667</v>
+        <v>1.155605333333333</v>
       </c>
       <c r="H19">
-        <v>7.670318</v>
+        <v>3.466816</v>
       </c>
       <c r="I19">
-        <v>0.1126414919306584</v>
+        <v>0.04233532586138062</v>
       </c>
       <c r="J19">
-        <v>0.1126414919306584</v>
+        <v>0.04233532586138063</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>23.64775066666667</v>
+        <v>5.621112333333333</v>
       </c>
       <c r="N19">
-        <v>70.943252</v>
+        <v>16.863337</v>
       </c>
       <c r="O19">
-        <v>0.3960186708606028</v>
+        <v>0.1373999757454739</v>
       </c>
       <c r="P19">
-        <v>0.3960186708606029</v>
+        <v>0.1373999757454739</v>
       </c>
       <c r="Q19">
-        <v>60.46192253268178</v>
+        <v>6.495787391665777</v>
       </c>
       <c r="R19">
-        <v>544.1573027941361</v>
+        <v>58.462086524992</v>
       </c>
       <c r="S19">
-        <v>0.04460813391813467</v>
+        <v>0.00581687274653043</v>
       </c>
       <c r="T19">
-        <v>0.04460813391813467</v>
+        <v>0.005816872746530431</v>
       </c>
     </row>
   </sheetData>
